--- a/GP/2015-TD-transactions.xlsx
+++ b/GP/2015-TD-transactions.xlsx
@@ -270,15 +270,9 @@
     <t>不动的存款</t>
   </si>
   <si>
-    <t>每日目标</t>
-  </si>
-  <si>
     <t>应赚</t>
   </si>
   <si>
-    <t>5% 每月目标</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (of 6/5)</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>2015年收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 每月目标</t>
+  </si>
+  <si>
+    <t>每月目标</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -814,6 +814,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1518,10 +1519,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,15 +1534,15 @@
     <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1549,7 +1550,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1569,11 +1570,14 @@
       <c r="K2" s="9">
         <v>5000</v>
       </c>
-      <c r="M2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>10586</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1617,6 +1621,7 @@
         <v>-128</v>
       </c>
       <c r="C5" s="9">
+        <f>K2*M2</f>
         <v>250</v>
       </c>
       <c r="D5" s="9">
@@ -1624,11 +1629,12 @@
         <v>10836</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="9">
+        <f>K2*M2</f>
         <v>250</v>
       </c>
       <c r="D6" s="9">
@@ -1636,31 +1642,31 @@
         <v>11086</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6">
         <v>10972</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K7">
         <f>K6-D6</f>
         <v>-114</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9">
         <f>(K6-K2-K3)</f>
         <v>1572</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K10" s="12">
         <f>K9/K2</f>
         <v>0.31440000000000001</v>

--- a/GP/2015-TD-transactions.xlsx
+++ b/GP/2015-TD-transactions.xlsx
@@ -273,9 +273,6 @@
     <t>应赚</t>
   </si>
   <si>
-    <t xml:space="preserve"> (of 6/5)</t>
-  </si>
-  <si>
     <t>当日账户收盘</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>每月目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (of 6/19)</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1542,7 @@
         <v>81</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1574,7 +1574,7 @@
         <v>0.05</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1642,34 +1642,34 @@
         <v>11086</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6">
-        <v>10972</v>
+        <v>10976</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K7">
         <f>K6-D6</f>
-        <v>-114</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9">
         <f>(K6-K2-K3)</f>
-        <v>1572</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K10" s="12">
         <f>K9/K2</f>
-        <v>0.31440000000000001</v>
+        <v>0.31519999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/GP/2015-TD-transactions.xlsx
+++ b/GP/2015-TD-transactions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="435" windowWidth="20730" windowHeight="11760" tabRatio="786" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="435" windowWidth="20730" windowHeight="11760" tabRatio="786" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="2015-Jan-Feb" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="2015-11" sheetId="11" r:id="rId10"/>
     <sheet name="2015-12" sheetId="12" r:id="rId11"/>
     <sheet name="2015-overall" sheetId="6" r:id="rId12"/>
+    <sheet name="复利计算" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="91">
   <si>
     <t>DATE</t>
   </si>
@@ -286,6 +287,18 @@
   </si>
   <si>
     <t xml:space="preserve"> (of 6/19)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>启动资金</t>
+  </si>
+  <si>
+    <t>每月复利</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1532,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,8 +1657,8 @@
       <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="K6">
-        <v>10976</v>
+      <c r="K6" s="8">
+        <v>11130</v>
       </c>
       <c r="L6" t="s">
         <v>86</v>
@@ -1654,7 +1667,7 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K7">
         <f>K6-D6</f>
-        <v>-110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1663,18 +1676,147 @@
       </c>
       <c r="K9">
         <f>(K6-K2-K3)</f>
-        <v>1576</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="K10" s="12">
         <f>K9/K2</f>
-        <v>0.31519999999999998</v>
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="9">
+        <f>K6</f>
+        <v>11130</v>
+      </c>
+      <c r="E16" s="9">
+        <f>D16-D5</f>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2">
+        <f>A2*(D2 +1)</f>
+        <v>5300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>B2*(D2 +1)</f>
+        <v>5618</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>B3*(D2 +1)</f>
+        <v>5955.08</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>B4*(D2 +1)</f>
+        <v>6312.3847999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>B5*(D2 +1)</f>
+        <v>6691.127888</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B6*(D2 +1)</f>
+        <v>7092.5955612800008</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>B7*(D2 +1)</f>
+        <v>7518.1512949568014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>B8*(D2 +1)</f>
+        <v>7969.2403726542098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>B9*(D2 +1)</f>
+        <v>8447.3947950134625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>B10*(D2 +1)</f>
+        <v>8954.2384827142705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>B11*(D2 +1)</f>
+        <v>9491.4927916771267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B12*(D2 +1)</f>
+        <v>10060.982359177755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2098,7 +2240,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -4370,7 +4512,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
